--- a/files/人口登记/人口登记/三组2.xlsx
+++ b/files/人口登记/人口登记/三组2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\MySpireOffice2\files\人口登记\人口登记\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5729" uniqueCount="1043">
   <si>
     <t>村   屯人口信息采集表</t>
   </si>
@@ -3157,14 +3162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3176,12 +3175,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -3189,6 +3190,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -3196,6 +3198,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3203,11 +3206,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3215,6 +3219,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3222,159 +3227,22 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3393,194 +3261,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3603,255 +3285,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3936,71 +3376,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4258,40 +3654,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N154" sqref="N154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="6.55555555555556" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.4444444444444" style="5" customWidth="1"/>
-    <col min="6" max="6" width="2.88888888888889" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="2.875" style="5" customWidth="1"/>
     <col min="7" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="6.77777777777778" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="5" customWidth="1"/>
     <col min="9" max="9" width="7" style="5" customWidth="1"/>
-    <col min="10" max="10" width="5.33333333333333" style="5" customWidth="1"/>
-    <col min="11" max="11" width="5.55555555555556" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="5" customWidth="1"/>
     <col min="12" max="15" width="9" style="5"/>
-    <col min="16" max="16" width="14.3333333333333" style="5"/>
+    <col min="16" max="16" width="14.375" style="5"/>
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="2:2">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -4350,7 +3746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>15062</v>
       </c>
@@ -4398,7 +3794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>20</v>
@@ -4444,7 +3840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>20</v>
@@ -4490,7 +3886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>17449</v>
       </c>
@@ -4537,7 +3933,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>44</v>
@@ -4582,7 +3978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>49</v>
@@ -4628,7 +4024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>31452</v>
       </c>
@@ -4676,7 +4072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>49</v>
@@ -4722,7 +4118,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>15694</v>
       </c>
@@ -4770,7 +4166,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
         <v>58</v>
@@ -4815,7 +4211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
         <v>58</v>
@@ -4860,7 +4256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
         <v>58</v>
@@ -4903,7 +4299,7 @@
       </c>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>15319</v>
       </c>
@@ -4951,7 +4347,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>16793</v>
       </c>
@@ -4999,7 +4395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>17048</v>
       </c>
@@ -5047,7 +4443,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="8" t="s">
         <v>73</v>
@@ -5093,7 +4489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <v>20339</v>
       </c>
@@ -5141,7 +4537,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
         <v>75</v>
@@ -5187,7 +4583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>17151</v>
       </c>
@@ -5235,7 +4631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
         <v>18875</v>
       </c>
@@ -5283,7 +4679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>15169</v>
       </c>
@@ -5331,7 +4727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="24" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
         <v>83</v>
@@ -5377,7 +4773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="25" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
         <v>83</v>
@@ -5423,7 +4819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
         <v>89</v>
@@ -5467,7 +4863,7 @@
       </c>
       <c r="S26" s="5"/>
     </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="27" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>16610</v>
       </c>
@@ -5515,7 +4911,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="28" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
         <v>89</v>
@@ -5555,7 +4951,7 @@
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
         <v>89</v>
@@ -5601,7 +4997,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="30" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
         <v>89</v>
@@ -5647,7 +5043,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="31" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
         <v>89</v>
@@ -5693,7 +5089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="32" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="8" t="s">
         <v>89</v>
@@ -5739,7 +5135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="33" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>16693</v>
       </c>
@@ -5786,7 +5182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="34" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
         <v>112</v>
@@ -5831,7 +5227,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="35" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="8" t="s">
         <v>112</v>
@@ -5876,7 +5272,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="36" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
         <v>112</v>
@@ -5921,7 +5317,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="37" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
         <v>121</v>
@@ -5965,7 +5361,7 @@
       </c>
       <c r="S37" s="5"/>
     </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="38" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10">
         <v>18259</v>
       </c>
@@ -6013,7 +5409,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="39" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
         <v>121</v>
@@ -6057,7 +5453,7 @@
       </c>
       <c r="S39" s="5"/>
     </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="40" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
         <v>121</v>
@@ -6103,7 +5499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="41" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>15020</v>
       </c>
@@ -6151,7 +5547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="42" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
         <v>130</v>
@@ -6197,7 +5593,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="43" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="11" t="s">
         <v>130</v>
@@ -6243,7 +5639,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="44" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
         <v>130</v>
@@ -6289,7 +5685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="45" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
       <c r="B45" s="8" t="s">
         <v>139</v>
@@ -6335,7 +5731,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="46" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
         <v>1486</v>
       </c>
@@ -6383,7 +5779,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="47" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
         <v>142</v>
@@ -6427,7 +5823,7 @@
       </c>
       <c r="S47" s="5"/>
     </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="48" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
         <v>146</v>
@@ -6473,7 +5869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="49" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="10">
         <v>18387</v>
       </c>
@@ -6521,7 +5917,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="50" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
       <c r="B50" s="11" t="s">
         <v>146</v>
@@ -6566,7 +5962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="51" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10"/>
       <c r="B51" s="11" t="s">
         <v>153</v>
@@ -6611,7 +6007,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="52" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10"/>
       <c r="B52" s="11" t="s">
         <v>153</v>
@@ -6656,7 +6052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="53" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
       <c r="B53" s="11" t="s">
         <v>153</v>
@@ -6701,7 +6097,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="54" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <v>15283</v>
       </c>
@@ -6749,7 +6145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="55" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
         <v>153</v>
@@ -6795,7 +6191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="56" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10">
         <v>17917</v>
       </c>
@@ -6843,7 +6239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="57" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
         <v>164</v>
@@ -6889,7 +6285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="58" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="s">
         <v>169</v>
@@ -6935,7 +6331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="59" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
         <v>16505</v>
       </c>
@@ -6983,7 +6379,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="60" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="8" t="s">
         <v>169</v>
@@ -7029,7 +6425,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="61" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7">
         <v>15695</v>
       </c>
@@ -7077,7 +6473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="62" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="8" t="s">
         <v>175</v>
@@ -7123,7 +6519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="63" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
         <v>175</v>
@@ -7169,7 +6565,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="64" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="8" t="s">
         <v>181</v>
@@ -7215,7 +6611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="65" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10"/>
       <c r="B65" s="8" t="s">
         <v>181</v>
@@ -7261,7 +6657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="66" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
       <c r="B66" s="11" t="s">
         <v>185</v>
@@ -7306,7 +6702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="67" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10"/>
       <c r="B67" s="11" t="s">
         <v>185</v>
@@ -7349,7 +6745,7 @@
       </c>
       <c r="S67" s="13"/>
     </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="68" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7">
         <v>16686</v>
       </c>
@@ -7397,7 +6793,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="69" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="8" t="s">
         <v>189</v>
@@ -7443,7 +6839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="70" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="8" t="s">
         <v>189</v>
@@ -7489,7 +6885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="71" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="8" t="s">
         <v>189</v>
@@ -7533,7 +6929,7 @@
       </c>
       <c r="S71" s="5"/>
     </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="72" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
         <v>198</v>
@@ -7579,7 +6975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="73" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7">
         <v>16683</v>
       </c>
@@ -7627,7 +7023,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="74" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="8" t="s">
         <v>198</v>
@@ -7673,7 +7069,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="75" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="8" t="s">
         <v>204</v>
@@ -7719,7 +7115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="76" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="10">
         <v>16908</v>
       </c>
@@ -7767,7 +7163,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="77" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="7">
         <v>14976</v>
       </c>
@@ -7815,7 +7211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="78" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="8" t="s">
         <v>208</v>
@@ -7861,7 +7257,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="79" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="8" t="s">
         <v>208</v>
@@ -7907,7 +7303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="80" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="7">
         <v>15080</v>
       </c>
@@ -7955,7 +7351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="81" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="8" t="s">
         <v>214</v>
@@ -8001,7 +7397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="82" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="8" t="s">
         <v>214</v>
@@ -8047,7 +7443,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="83" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="10">
         <v>17089</v>
       </c>
@@ -8095,7 +7491,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="84" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7">
         <v>15696</v>
       </c>
@@ -8143,7 +7539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="85" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="8" t="s">
         <v>222</v>
@@ -8189,7 +7585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="86" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="8" t="s">
         <v>222</v>
@@ -8233,7 +7629,7 @@
       </c>
       <c r="S86" s="5"/>
     </row>
-    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="87" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="10">
         <v>16409</v>
       </c>
@@ -8281,7 +7677,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="88" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="8" t="s">
         <v>228</v>
@@ -8327,7 +7723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="89" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="10">
         <v>20679</v>
       </c>
@@ -8375,7 +7771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="90" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="10">
         <v>13331</v>
       </c>
@@ -8423,7 +7819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="91" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="10">
         <v>15345</v>
       </c>
@@ -8471,7 +7867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="92" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="8" t="s">
         <v>236</v>
@@ -8517,7 +7913,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="93" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="8" t="s">
         <v>236</v>
@@ -8561,7 +7957,7 @@
       </c>
       <c r="S93" s="5"/>
     </row>
-    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="94" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="8" t="s">
         <v>242</v>
@@ -8605,7 +8001,7 @@
       </c>
       <c r="S94" s="5"/>
     </row>
-    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="95" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7">
         <v>15867</v>
       </c>
@@ -8653,7 +8049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="96" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="8" t="s">
         <v>242</v>
@@ -8699,7 +8095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="97" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="8" t="s">
         <v>242</v>
@@ -8745,7 +8141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="98" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="8" t="s">
         <v>250</v>
@@ -8791,7 +8187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="99" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="10">
         <v>17371</v>
       </c>
@@ -8839,7 +8235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="100" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
         <v>250</v>
@@ -8885,7 +8281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="101" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="8" t="s">
         <v>250</v>
@@ -8929,7 +8325,7 @@
       </c>
       <c r="S101" s="5"/>
     </row>
-    <row r="102" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="102" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="7">
         <v>16872</v>
       </c>
@@ -8976,7 +8372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="103" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="8" t="s">
         <v>258</v>
@@ -9021,7 +8417,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="104" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="8" t="s">
         <v>258</v>
@@ -9066,7 +8462,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="105" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="7">
         <v>13333</v>
       </c>
@@ -9114,7 +8510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="106" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="8" t="s">
         <v>264</v>
@@ -9160,7 +8556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="107" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="8" t="s">
         <v>264</v>
@@ -9206,7 +8602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="108" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7">
         <v>15693</v>
       </c>
@@ -9254,7 +8650,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="109" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="8" t="s">
         <v>270</v>
@@ -9298,7 +8694,7 @@
       </c>
       <c r="S109" s="5"/>
     </row>
-    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="110" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="10">
         <v>19028</v>
       </c>
@@ -9346,7 +8742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="111" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="10">
         <v>20232</v>
       </c>
@@ -9394,7 +8790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="112" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="8" t="s">
         <v>276</v>
@@ -9438,7 +8834,7 @@
       </c>
       <c r="S112" s="5"/>
     </row>
-    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="113" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="7">
         <v>13229</v>
       </c>
@@ -9486,7 +8882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="114" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="8" t="s">
         <v>280</v>
@@ -9532,7 +8928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="115" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
         <v>280</v>
@@ -9578,7 +8974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="116" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="10">
         <v>19104</v>
       </c>
@@ -9626,7 +9022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="117" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="8" t="s">
         <v>288</v>
@@ -9672,7 +9068,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="118" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7">
         <v>14093</v>
       </c>
@@ -9720,7 +9116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="119" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="119" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="7">
         <v>17157</v>
       </c>
@@ -9768,7 +9164,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="120" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="7">
         <v>15532</v>
       </c>
@@ -9815,7 +9211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="121" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="8" t="s">
         <v>294</v>
@@ -9858,7 +9254,7 @@
       </c>
       <c r="S121" s="5"/>
     </row>
-    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="122" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="8" t="s">
         <v>294</v>
@@ -9901,7 +9297,7 @@
       </c>
       <c r="S122" s="5"/>
     </row>
-    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="123" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="10">
         <v>16685</v>
       </c>
@@ -9949,7 +9345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="124" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="7">
         <v>16326</v>
       </c>
@@ -9997,7 +9393,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="125" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="8" t="s">
         <v>302</v>
@@ -10043,7 +9439,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="126" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="8" t="s">
         <v>302</v>
@@ -10089,7 +9485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="127" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="8" t="s">
         <v>302</v>
@@ -10135,7 +9531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="128" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="8" t="s">
         <v>310</v>
@@ -10181,7 +9577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="129" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="28" t="s">
         <v>313</v>
       </c>
@@ -10229,7 +9625,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="130" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="8" t="s">
         <v>310</v>
@@ -10275,7 +9671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="131" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
         <v>310</v>
@@ -10321,7 +9717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="132" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
         <v>319</v>
@@ -10366,7 +9762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="133" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="8" t="s">
         <v>319</v>
@@ -10412,7 +9808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="134" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="8" t="s">
         <v>319</v>
@@ -10458,7 +9854,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="135" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="7">
         <v>15662</v>
       </c>
@@ -10506,7 +9902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="136" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="8" t="s">
         <v>329</v>
@@ -10552,7 +9948,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="137" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="8" t="s">
         <v>329</v>
@@ -10598,7 +9994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="138" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="138" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="7">
         <v>16781</v>
       </c>
@@ -10646,7 +10042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="139" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="8" t="s">
         <v>335</v>
@@ -10692,7 +10088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="140" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="8" t="s">
         <v>335</v>
@@ -10736,7 +10132,7 @@
       </c>
       <c r="S140" s="5"/>
     </row>
-    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="141" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="7">
         <v>11897</v>
       </c>
@@ -10784,7 +10180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="142" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="7">
         <v>13225</v>
       </c>
@@ -10832,7 +10228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="143" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="8" t="s">
         <v>341</v>
@@ -10876,7 +10272,7 @@
       </c>
       <c r="S143" s="5"/>
     </row>
-    <row r="144" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="144" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="8" t="s">
         <v>341</v>
@@ -10920,7 +10316,7 @@
       </c>
       <c r="S144" s="5"/>
     </row>
-    <row r="145" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="145" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="7">
         <v>16684</v>
       </c>
@@ -10968,7 +10364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="146" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="8" t="s">
         <v>347</v>
@@ -11012,7 +10408,7 @@
       </c>
       <c r="S146" s="5"/>
     </row>
-    <row r="147" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="147" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
       <c r="B147" s="8" t="s">
         <v>347</v>
@@ -11056,7 +10452,7 @@
       </c>
       <c r="S147" s="5"/>
     </row>
-    <row r="148" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="148" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="7">
         <v>15759</v>
       </c>
@@ -11104,7 +10500,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="149" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="149" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
       <c r="B149" s="8" t="s">
         <v>353</v>
@@ -11148,7 +10544,7 @@
       </c>
       <c r="S149" s="5"/>
     </row>
-    <row r="150" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="150" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
       <c r="B150" s="8" t="s">
         <v>353</v>
@@ -11194,7 +10590,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="151" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="151" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="7"/>
       <c r="B151" s="8" t="s">
         <v>360</v>
@@ -11240,7 +10636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="152" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="7">
         <v>15486</v>
       </c>
@@ -11288,7 +10684,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="153" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="7"/>
       <c r="B153" s="8" t="s">
         <v>360</v>
@@ -11334,7 +10730,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="154" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="7"/>
       <c r="B154" s="8" t="s">
         <v>360</v>
@@ -11378,7 +10774,7 @@
       </c>
       <c r="S154" s="5"/>
     </row>
-    <row r="155" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="155" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="7"/>
       <c r="B155" s="8" t="s">
         <v>360</v>
@@ -11424,7 +10820,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="156" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="7">
         <v>16607</v>
       </c>
@@ -11472,7 +10868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="157" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="157" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="7"/>
       <c r="B157" s="8" t="s">
         <v>371</v>
@@ -11518,7 +10914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="158" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="158" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="7"/>
       <c r="B158" s="8" t="s">
         <v>371</v>
@@ -11564,7 +10960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="159" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="159" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="7">
         <v>21181</v>
       </c>
@@ -11612,7 +11008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="160" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="160" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="7"/>
       <c r="B160" s="8" t="s">
         <v>377</v>
@@ -11658,7 +11054,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="161" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="7"/>
       <c r="B161" s="8" t="s">
         <v>377</v>
@@ -11704,7 +11100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="162" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="162" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="7"/>
       <c r="B162" s="8" t="s">
         <v>377</v>
@@ -11750,7 +11146,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="163" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="7">
         <v>15767</v>
       </c>
@@ -11798,7 +11194,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="164" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="164" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="7"/>
       <c r="B164" s="8" t="s">
         <v>385</v>
@@ -11844,7 +11240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="165" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="7"/>
       <c r="B165" s="8" t="s">
         <v>385</v>
@@ -11890,7 +11286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="166" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="166" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="7">
         <v>16831</v>
       </c>
@@ -11938,7 +11334,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="167" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="7"/>
       <c r="B167" s="8" t="s">
         <v>391</v>
@@ -11984,7 +11380,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="168" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="168" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="7"/>
       <c r="B168" s="8" t="s">
         <v>391</v>
@@ -12030,7 +11426,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="169" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="169" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="7">
         <v>15026</v>
       </c>
@@ -12078,7 +11474,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="170" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="7"/>
       <c r="B170" s="8" t="s">
         <v>397</v>
@@ -12124,7 +11520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="171" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="7"/>
       <c r="B171" s="8" t="s">
         <v>397</v>
@@ -12170,7 +11566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="172" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="10"/>
       <c r="B172" s="8" t="s">
         <v>403</v>
@@ -12216,7 +11612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="173" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="7">
         <v>14191</v>
       </c>
@@ -12264,7 +11660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="174" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="10"/>
       <c r="B174" s="11" t="s">
         <v>405</v>
@@ -12309,7 +11705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="175" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="175" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="7">
         <v>16341</v>
       </c>
@@ -12357,7 +11753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="176" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="176" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="7"/>
       <c r="B176" s="8" t="s">
         <v>412</v>
@@ -12400,7 +11796,7 @@
       </c>
       <c r="S176" s="5"/>
     </row>
-    <row r="177" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="177" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="10">
         <v>18967</v>
       </c>
@@ -12447,7 +11843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="178" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="7"/>
       <c r="B178" s="8" t="s">
         <v>416</v>
@@ -12493,7 +11889,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="179" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="179" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="7"/>
       <c r="B179" s="8" t="s">
         <v>416</v>
@@ -12537,7 +11933,7 @@
       </c>
       <c r="S179" s="5"/>
     </row>
-    <row r="180" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="180" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="7">
         <v>16679</v>
       </c>
@@ -12585,7 +11981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="181" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="181" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="7"/>
       <c r="B181" s="8" t="s">
         <v>422</v>
@@ -12629,7 +12025,7 @@
       </c>
       <c r="S181" s="5"/>
     </row>
-    <row r="182" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="182" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="10">
         <v>17088</v>
       </c>
@@ -12677,7 +12073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="183" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="183" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="7"/>
       <c r="B183" s="8" t="s">
         <v>422</v>
@@ -12723,7 +12119,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="184" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="184" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="7"/>
       <c r="B184" s="8" t="s">
         <v>422</v>
@@ -12769,7 +12165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="185" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="185" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="10">
         <v>17852</v>
       </c>
@@ -12817,7 +12213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="186" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="186" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="7"/>
       <c r="B186" s="8" t="s">
         <v>431</v>
@@ -12863,7 +12259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="187" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="7"/>
       <c r="B187" s="8" t="s">
         <v>431</v>
@@ -12909,7 +12305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="188" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="7"/>
       <c r="B188" s="8" t="s">
         <v>431</v>
@@ -12955,7 +12351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="189" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="7">
         <v>13609</v>
       </c>
@@ -13002,7 +12398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="190" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="190" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="7"/>
       <c r="B190" s="8" t="s">
         <v>439</v>
@@ -13045,7 +12441,7 @@
       </c>
       <c r="S190" s="5"/>
     </row>
-    <row r="191" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="191" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="7">
         <v>14193</v>
       </c>
@@ -13093,7 +12489,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="192" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="7"/>
       <c r="B192" s="8" t="s">
         <v>443</v>
@@ -13139,7 +12535,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="193" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="10">
         <v>18291</v>
       </c>
@@ -13187,7 +12583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="194" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="7"/>
       <c r="B194" s="8" t="s">
         <v>447</v>
@@ -13233,7 +12629,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="195" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="195" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="7"/>
       <c r="B195" s="8" t="s">
         <v>447</v>
@@ -13279,7 +12675,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="196" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="196" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="7"/>
       <c r="B196" s="8" t="s">
         <v>453</v>
@@ -13325,7 +12721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="197" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="197" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="7"/>
       <c r="B197" s="8" t="s">
         <v>453</v>
@@ -13371,7 +12767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="198" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="7"/>
       <c r="B198" s="8" t="s">
         <v>453</v>
@@ -13417,7 +12813,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="199" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="199" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="7">
         <v>14189</v>
       </c>
@@ -13465,7 +12861,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="200" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="200" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="7"/>
       <c r="B200" s="8" t="s">
         <v>461</v>
@@ -13511,7 +12907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="201" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="201" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="7"/>
       <c r="B201" s="8" t="s">
         <v>461</v>
@@ -13557,7 +12953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="202" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="202" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="7">
         <v>15021</v>
       </c>
@@ -13605,7 +13001,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="203" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="7">
         <v>16873</v>
       </c>
@@ -13653,7 +13049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="204" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="204" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="7"/>
       <c r="B204" s="8" t="s">
         <v>467</v>
@@ -13699,7 +13095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="205" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="205" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="7"/>
       <c r="B205" s="8" t="s">
         <v>467</v>
@@ -13745,7 +13141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="206" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="206" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="7"/>
       <c r="B206" s="8" t="s">
         <v>467</v>
@@ -13789,7 +13185,7 @@
       </c>
       <c r="S206" s="5"/>
     </row>
-    <row r="207" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="207" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="7"/>
       <c r="B207" s="8" t="s">
         <v>475</v>
@@ -13833,7 +13229,7 @@
       </c>
       <c r="S207" s="5"/>
     </row>
-    <row r="208" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="208" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="7">
         <v>15444</v>
       </c>
@@ -13881,7 +13277,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="209" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="209" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="7"/>
       <c r="B209" s="8" t="s">
         <v>475</v>
@@ -13927,7 +13323,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="210" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="210" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="7"/>
       <c r="B210" s="8" t="s">
         <v>475</v>
@@ -13971,7 +13367,7 @@
       </c>
       <c r="S210" s="5"/>
     </row>
-    <row r="211" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="211" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="7"/>
       <c r="B211" s="8" t="s">
         <v>484</v>
@@ -14015,7 +13411,7 @@
       </c>
       <c r="S211" s="5"/>
     </row>
-    <row r="212" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="212" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="7">
         <v>15022</v>
       </c>
@@ -14063,7 +13459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="213" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="7"/>
       <c r="B213" s="8" t="s">
         <v>484</v>
@@ -14107,7 +13503,7 @@
       </c>
       <c r="S213" s="5"/>
     </row>
-    <row r="214" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="214" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="10">
         <v>17090</v>
       </c>
@@ -14155,7 +13551,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="215" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="215" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="7"/>
       <c r="B215" s="8" t="s">
         <v>490</v>
@@ -14201,7 +13597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="216" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="216" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="7"/>
       <c r="B216" s="8" t="s">
         <v>490</v>
@@ -14247,7 +13643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="217" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="217" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="7">
         <v>15127</v>
       </c>
@@ -14295,7 +13691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="218" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="218" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="7"/>
       <c r="B218" s="8" t="s">
         <v>496</v>
@@ -14341,7 +13737,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="219" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="219" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="10">
         <v>18233</v>
       </c>
@@ -14389,7 +13785,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="220" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="220" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="7"/>
       <c r="B220" s="8" t="s">
         <v>500</v>
@@ -14435,7 +13831,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="221" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="221" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="7"/>
       <c r="B221" s="8" t="s">
         <v>500</v>
@@ -14481,7 +13877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="222" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="7"/>
       <c r="B222" s="8" t="s">
         <v>500</v>
@@ -14527,7 +13923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="223" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="10">
         <v>17364</v>
       </c>
@@ -14574,7 +13970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="224" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="224" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="7"/>
       <c r="B224" s="8" t="s">
         <v>508</v>
@@ -14617,7 +14013,7 @@
       </c>
       <c r="S224" s="5"/>
     </row>
-    <row r="225" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="225" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="7"/>
       <c r="B225" s="8" t="s">
         <v>512</v>
@@ -14661,7 +14057,7 @@
       </c>
       <c r="S225" s="5"/>
     </row>
-    <row r="226" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="226" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="7">
         <v>11668</v>
       </c>
@@ -14709,7 +14105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="227" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="7"/>
       <c r="B227" s="8" t="s">
         <v>512</v>
@@ -14755,7 +14151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="228" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="7"/>
       <c r="B228" s="8" t="s">
         <v>512</v>
@@ -14801,7 +14197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="229" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="7"/>
       <c r="B229" s="8" t="s">
         <v>512</v>
@@ -14847,7 +14243,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="230" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="230" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="10">
         <v>17149</v>
       </c>
@@ -14895,7 +14291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="231" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="231" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="7"/>
       <c r="B231" s="8" t="s">
         <v>524</v>
@@ -14941,7 +14337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="232" s="1" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="232" spans="1:19" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="7"/>
       <c r="B232" s="8" t="s">
         <v>524</v>
@@ -14987,7 +14383,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="233" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="233" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="7"/>
       <c r="B233" s="8" t="s">
         <v>524</v>
@@ -15026,7 +14422,7 @@
       <c r="R233" s="5"/>
       <c r="S233" s="5"/>
     </row>
-    <row r="234" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="234" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="7">
         <v>15178</v>
       </c>
@@ -15074,7 +14470,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="235" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="235" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="7"/>
       <c r="B235" s="8" t="s">
         <v>532</v>
@@ -15120,7 +14516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="236" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="236" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="10">
         <v>19579</v>
       </c>
@@ -15168,7 +14564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="237" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="7">
         <v>16608</v>
       </c>
@@ -15216,7 +14612,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="238" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="238" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="7"/>
       <c r="B238" s="8" t="s">
         <v>538</v>
@@ -15262,7 +14658,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="239" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="239" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="7"/>
       <c r="B239" s="8" t="s">
         <v>538</v>
@@ -15308,7 +14704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="240" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="240" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="7">
         <v>15360</v>
       </c>
@@ -15356,7 +14752,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="241" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="241" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="7"/>
       <c r="B241" s="8" t="s">
         <v>544</v>
@@ -15402,7 +14798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="242" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="242" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="10"/>
       <c r="B242" s="11" t="s">
         <v>548</v>
@@ -15447,7 +14843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="243" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="243" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="10">
         <v>17365</v>
       </c>
@@ -15495,7 +14891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="244" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="244" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="7"/>
       <c r="B244" s="8" t="s">
         <v>551</v>
@@ -15541,7 +14937,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="245" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="7"/>
       <c r="B245" s="8" t="s">
         <v>551</v>
@@ -15587,7 +14983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="246" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="246" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="7">
         <v>15321</v>
       </c>
@@ -15635,7 +15031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="247" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="247" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="7"/>
       <c r="B247" s="8" t="s">
         <v>560</v>
@@ -15681,7 +15077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="248" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="248" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="10">
         <v>17896</v>
       </c>
@@ -15729,7 +15125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="249" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="249" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="7"/>
       <c r="B249" s="8" t="s">
         <v>560</v>
@@ -15775,7 +15171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="250" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="250" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="7"/>
       <c r="B250" s="8" t="s">
         <v>560</v>
@@ -15819,7 +15215,7 @@
       </c>
       <c r="S250" s="5"/>
     </row>
-    <row r="251" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="251" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="7"/>
       <c r="B251" s="8" t="s">
         <v>560</v>
@@ -15863,7 +15259,7 @@
       </c>
       <c r="S251" s="5"/>
     </row>
-    <row r="252" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="252" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="10">
         <v>17445</v>
       </c>
@@ -15911,7 +15307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="253" s="3" customFormat="1" customHeight="1" spans="1:19">
+    <row r="253" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="15">
         <v>16321</v>
       </c>
@@ -15956,7 +15352,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="254" s="4" customFormat="1" customHeight="1" spans="1:19">
+    <row r="254" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="17"/>
       <c r="B254" s="18" t="s">
         <v>572</v>
@@ -15999,7 +15395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="255" s="4" customFormat="1" customHeight="1" spans="1:19">
+    <row r="255" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="17"/>
       <c r="B255" s="18" t="s">
         <v>572</v>
@@ -16042,7 +15438,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="256" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="256" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="7">
         <v>15952</v>
       </c>
@@ -16090,7 +15486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="257" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="257" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="7"/>
       <c r="B257" s="8" t="s">
         <v>577</v>
@@ -16136,7 +15532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="258" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="258" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="7"/>
       <c r="B258" s="8" t="s">
         <v>577</v>
@@ -16182,7 +15578,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="259" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="259" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="7">
         <v>15128</v>
       </c>
@@ -16230,7 +15626,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="260" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="260" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="10">
         <v>18344</v>
       </c>
@@ -16278,7 +15674,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="261" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="261" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="7"/>
       <c r="B261" s="8" t="s">
         <v>586</v>
@@ -16324,7 +15720,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="262" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="262" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="7"/>
       <c r="B262" s="8" t="s">
         <v>590</v>
@@ -16369,7 +15765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="263" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="263" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="7">
         <v>14166</v>
       </c>
@@ -16416,7 +15812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="264" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="264" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="7"/>
       <c r="B264" s="8" t="s">
         <v>590</v>
@@ -16461,7 +15857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="265" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="265" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="10">
         <v>17777</v>
       </c>
@@ -16509,7 +15905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="266" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="266" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="7"/>
       <c r="B266" s="8" t="s">
         <v>596</v>
@@ -16555,7 +15951,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="267" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="267" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="7"/>
       <c r="B267" s="8" t="s">
         <v>596</v>
@@ -16601,7 +15997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="268" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="7"/>
       <c r="B268" s="8" t="s">
         <v>596</v>
@@ -16641,7 +16037,7 @@
       <c r="R268" s="5"/>
       <c r="S268" s="5"/>
     </row>
-    <row r="269" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="269" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="7">
         <v>13613</v>
       </c>
@@ -16689,7 +16085,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="270" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="270" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="7">
         <v>14187</v>
       </c>
@@ -16737,7 +16133,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="271" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="271" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="7"/>
       <c r="B271" s="8" t="s">
         <v>606</v>
@@ -16783,7 +16179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="272" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="272" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="7"/>
       <c r="B272" s="8" t="s">
         <v>606</v>
@@ -16829,7 +16225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="273" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="273" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="7">
         <v>14627</v>
       </c>
@@ -16877,7 +16273,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="274" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="274" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="7"/>
       <c r="B274" s="8" t="s">
         <v>612</v>
@@ -16923,7 +16319,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="275" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="275" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="7">
         <v>14192</v>
       </c>
@@ -16971,7 +16367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="276" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="276" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="7"/>
       <c r="B276" s="8" t="s">
         <v>618</v>
@@ -17015,7 +16411,7 @@
       </c>
       <c r="S276" s="5"/>
     </row>
-    <row r="277" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="277" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="10">
         <v>18303</v>
       </c>
@@ -17063,7 +16459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="278" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="278" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="7"/>
       <c r="B278" s="8" t="s">
         <v>622</v>
@@ -17109,7 +16505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="279" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="279" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="10">
         <v>17085</v>
       </c>
@@ -17157,7 +16553,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="280" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="280" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="7"/>
       <c r="B280" s="8" t="s">
         <v>626</v>
@@ -17203,7 +16599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="281" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="281" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="7"/>
       <c r="B281" s="8" t="s">
         <v>626</v>
@@ -17249,7 +16645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="282" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="282" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="10"/>
       <c r="B282" s="11" t="s">
         <v>626</v>
@@ -17294,7 +16690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="283" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="283" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="7">
         <v>15443</v>
       </c>
@@ -17342,7 +16738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="284" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="284" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="7"/>
       <c r="B284" s="8" t="s">
         <v>626</v>
@@ -17386,7 +16782,7 @@
       </c>
       <c r="S284" s="5"/>
     </row>
-    <row r="285" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="285" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="7">
         <v>16832</v>
       </c>
@@ -17433,7 +16829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="286" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="286" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="7"/>
       <c r="B286" s="8" t="s">
         <v>636</v>
@@ -17478,7 +16874,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="287" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="287" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="7"/>
       <c r="B287" s="8" t="s">
         <v>640</v>
@@ -17524,7 +16920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="288" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="288" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="7">
         <v>15121</v>
       </c>
@@ -17572,7 +16968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="289" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="289" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="7"/>
       <c r="B289" s="8" t="s">
         <v>642</v>
@@ -17618,7 +17014,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="290" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="290" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="7"/>
       <c r="B290" s="8" t="s">
         <v>642</v>
@@ -17664,7 +17060,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="291" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="291" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="7"/>
       <c r="B291" s="8" t="s">
         <v>642</v>
@@ -17710,7 +17106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="292" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="10"/>
       <c r="B292" s="11" t="s">
         <v>650</v>
@@ -17755,7 +17151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="293" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="293" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="10"/>
       <c r="B293" s="11" t="s">
         <v>650</v>
@@ -17800,7 +17196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="294" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="294" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="10"/>
       <c r="B294" s="11" t="s">
         <v>650</v>
@@ -17845,7 +17241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="295" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="295" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="10">
         <v>17363</v>
       </c>
@@ -17892,7 +17288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="296" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="296" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="7"/>
       <c r="B296" s="8" t="s">
         <v>657</v>
@@ -17937,7 +17333,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="297" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="297" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="10">
         <v>18887</v>
       </c>
@@ -17985,7 +17381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="298" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="298" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="7"/>
       <c r="B298" s="8" t="s">
         <v>663</v>
@@ -18030,7 +17426,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="299" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="299" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="7"/>
       <c r="B299" s="8" t="s">
         <v>663</v>
@@ -18075,7 +17471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="300" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="7">
         <v>16248</v>
       </c>
@@ -18122,7 +17518,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="301" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="301" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="7"/>
       <c r="B301" s="8" t="s">
         <v>669</v>
@@ -18168,7 +17564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="302" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="302" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="10">
         <v>15361</v>
       </c>
@@ -18216,7 +17612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="303" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="303" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="7"/>
       <c r="B303" s="8" t="s">
         <v>669</v>
@@ -18260,7 +17656,7 @@
       </c>
       <c r="S303" s="5"/>
     </row>
-    <row r="304" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="304" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="7"/>
       <c r="B304" s="8" t="s">
         <v>675</v>
@@ -18306,7 +17702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="305" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="305" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="10">
         <v>17050</v>
       </c>
@@ -18354,7 +17750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="306" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="306" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="10">
         <v>17621</v>
       </c>
@@ -18401,7 +17797,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="307" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="307" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="7"/>
       <c r="B307" s="8" t="s">
         <v>679</v>
@@ -18446,7 +17842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="308" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="308" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="7"/>
       <c r="B308" s="8" t="s">
         <v>684</v>
@@ -18490,7 +17886,7 @@
       </c>
       <c r="S308" s="5"/>
     </row>
-    <row r="309" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="309" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="7">
         <v>16708</v>
       </c>
@@ -18538,7 +17934,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="310" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="310" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="7"/>
       <c r="B310" s="8" t="s">
         <v>684</v>
@@ -18584,7 +17980,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="311" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="311" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="7"/>
       <c r="B311" s="8" t="s">
         <v>690</v>
@@ -18630,7 +18026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="312" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="312" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="7">
         <v>16423</v>
       </c>
@@ -18678,7 +18074,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="313" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="313" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="7"/>
       <c r="B313" s="8" t="s">
         <v>690</v>
@@ -18724,7 +18120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="314" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="314" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="7"/>
       <c r="B314" s="8" t="s">
         <v>690</v>
@@ -18770,7 +18166,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="315" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="315" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="7"/>
       <c r="B315" s="8" t="s">
         <v>698</v>
@@ -18815,7 +18211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="316" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="316" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="7"/>
       <c r="B316" s="8" t="s">
         <v>698</v>
@@ -18857,7 +18253,7 @@
       <c r="R316" s="5"/>
       <c r="S316" s="5"/>
     </row>
-    <row r="317" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="317" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="7">
         <v>14344</v>
       </c>
@@ -18904,7 +18300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="318" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="318" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="7"/>
       <c r="B318" s="8" t="s">
         <v>698</v>
@@ -18949,7 +18345,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="319" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="319" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="7"/>
       <c r="B319" s="8" t="s">
         <v>698</v>
@@ -18992,7 +18388,7 @@
       </c>
       <c r="S319" s="5"/>
     </row>
-    <row r="320" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="320" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="7"/>
       <c r="B320" s="8" t="s">
         <v>698</v>
@@ -19037,7 +18433,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="321" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="321" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="7">
         <v>13227</v>
       </c>
@@ -19085,7 +18481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="322" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="322" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="7"/>
       <c r="B322" s="8" t="s">
         <v>676</v>
@@ -19131,7 +18527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="323" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="323" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="7"/>
       <c r="B323" s="8" t="s">
         <v>676</v>
@@ -19177,7 +18573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="324" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="7"/>
       <c r="B324" s="8" t="s">
         <v>676</v>
@@ -19223,7 +18619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="325" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="7"/>
       <c r="B325" s="8" t="s">
         <v>717</v>
@@ -19268,7 +18664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="326" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="326" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="7"/>
       <c r="B326" s="8" t="s">
         <v>717</v>
@@ -19313,7 +18709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="327" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="7">
         <v>13842</v>
       </c>
@@ -19360,7 +18756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="328" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="328" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="7"/>
       <c r="B328" s="8" t="s">
         <v>717</v>
@@ -19403,7 +18799,7 @@
       </c>
       <c r="S328" s="5"/>
     </row>
-    <row r="329" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="329" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="7">
         <v>16844</v>
       </c>
@@ -19450,7 +18846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="330" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="330" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="7"/>
       <c r="B330" s="8" t="s">
         <v>725</v>
@@ -19495,7 +18891,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="331" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="331" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="7"/>
       <c r="B331" s="8" t="s">
         <v>725</v>
@@ -19540,7 +18936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="332" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="332" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="10">
         <v>20134</v>
       </c>
@@ -19587,7 +18983,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="333" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="333" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="10">
         <v>18289</v>
       </c>
@@ -19635,7 +19031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="334" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="334" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="7"/>
       <c r="B334" s="8" t="s">
         <v>733</v>
@@ -19681,7 +19077,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="335" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="335" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="7">
         <v>14975</v>
       </c>
@@ -19728,7 +19124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="336" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="336" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="10">
         <v>17087</v>
       </c>
@@ -19776,7 +19172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="337" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="337" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="7"/>
       <c r="B337" s="8" t="s">
         <v>740</v>
@@ -19822,7 +19218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="338" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="338" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="7"/>
       <c r="B338" s="8" t="s">
         <v>744</v>
@@ -19868,7 +19264,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="339" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="339" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="10">
         <v>17145</v>
       </c>
@@ -19916,7 +19312,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="340" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="340" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="7"/>
       <c r="B340" s="8" t="s">
         <v>748</v>
@@ -19962,7 +19358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="341" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="341" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="7"/>
       <c r="B341" s="8" t="s">
         <v>748</v>
@@ -20008,7 +19404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="342" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="342" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="7"/>
       <c r="B342" s="8" t="s">
         <v>748</v>
@@ -20054,7 +19450,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="343" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="343" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="7"/>
       <c r="B343" s="8" t="s">
         <v>748</v>
@@ -20100,7 +19496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="344" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="344" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="10">
         <v>18085</v>
       </c>
@@ -20148,7 +19544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="345" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="345" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="7">
         <v>16444</v>
       </c>
@@ -20196,7 +19592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="346" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="346" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="7"/>
       <c r="B346" s="8" t="s">
         <v>758</v>
@@ -20242,7 +19638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="347" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="347" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="7"/>
       <c r="B347" s="8" t="s">
         <v>758</v>
@@ -20288,7 +19684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="348" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="348" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="7"/>
       <c r="B348" s="8" t="s">
         <v>758</v>
@@ -20334,7 +19730,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="349" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="10">
         <v>18930</v>
       </c>
@@ -20382,7 +19778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="350" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="350" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="7"/>
       <c r="B350" s="8" t="s">
         <v>768</v>
@@ -20427,7 +19823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="351" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="351" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="7"/>
       <c r="B351" s="8" t="s">
         <v>768</v>
@@ -20472,7 +19868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="352" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="352" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="7"/>
       <c r="B352" s="8" t="s">
         <v>768</v>
@@ -20515,7 +19911,7 @@
       </c>
       <c r="S352" s="5"/>
     </row>
-    <row r="353" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="353" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="7">
         <v>15097</v>
       </c>
@@ -20562,7 +19958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="354" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="354" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="7"/>
       <c r="B354" s="8" t="s">
         <v>768</v>
@@ -20607,7 +20003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="355" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="355" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="7"/>
       <c r="B355" s="8" t="s">
         <v>768</v>
@@ -20650,7 +20046,7 @@
       </c>
       <c r="S355" s="5"/>
     </row>
-    <row r="356" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="356" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="7">
         <v>16782</v>
       </c>
@@ -20698,7 +20094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="357" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="357" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="7"/>
       <c r="B357" s="8" t="s">
         <v>780</v>
@@ -20744,7 +20140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="358" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="358" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="7"/>
       <c r="B358" s="8" t="s">
         <v>780</v>
@@ -20790,7 +20186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="359" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="359" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="10">
         <v>20322</v>
       </c>
@@ -20838,7 +20234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="360" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="360" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="10">
         <v>17372</v>
       </c>
@@ -20886,7 +20282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="361" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="361" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="7"/>
       <c r="B361" s="8" t="s">
         <v>788</v>
@@ -20932,7 +20328,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="362" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="362" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="7"/>
       <c r="B362" s="8" t="s">
         <v>788</v>
@@ -20978,7 +20374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="363" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="363" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="10">
         <v>17374</v>
       </c>
@@ -21026,7 +20422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="364" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="364" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="7"/>
       <c r="B364" s="8" t="s">
         <v>796</v>
@@ -21072,7 +20468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="365" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="365" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="7"/>
       <c r="B365" s="8" t="s">
         <v>796</v>
@@ -21118,7 +20514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="366" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="366" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="10">
         <v>17150</v>
       </c>
@@ -21166,7 +20562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="367" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="367" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="7"/>
       <c r="B367" s="8" t="s">
         <v>802</v>
@@ -21212,7 +20608,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="368" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="368" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="7"/>
       <c r="B368" s="8" t="s">
         <v>802</v>
@@ -21258,7 +20654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="369" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="369" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="10">
         <v>19685</v>
       </c>
@@ -21306,7 +20702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="370" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="10"/>
       <c r="B370" s="8" t="s">
         <v>808</v>
@@ -21352,7 +20748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="371" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="371" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="10">
         <v>18901</v>
       </c>
@@ -21399,7 +20795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="372" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="372" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="7"/>
       <c r="B372" s="8" t="s">
         <v>810</v>
@@ -21442,7 +20838,7 @@
       </c>
       <c r="S372" s="5"/>
     </row>
-    <row r="373" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="373" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="7"/>
       <c r="B373" s="8" t="s">
         <v>814</v>
@@ -21486,7 +20882,7 @@
       </c>
       <c r="S373" s="5"/>
     </row>
-    <row r="374" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="374" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="7">
         <v>11580</v>
       </c>
@@ -21534,7 +20930,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="375" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="375" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="7"/>
       <c r="B375" s="8" t="s">
         <v>814</v>
@@ -21580,7 +20976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="376" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="376" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="7"/>
       <c r="B376" s="8" t="s">
         <v>820</v>
@@ -21626,7 +21022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="377" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="377" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="7"/>
       <c r="B377" s="8" t="s">
         <v>820</v>
@@ -21672,7 +21068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="378" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="378" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="7">
         <v>14801</v>
       </c>
@@ -21720,7 +21116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="379" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="379" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="10">
         <v>18367</v>
       </c>
@@ -21768,7 +21164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="380" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="380" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="7"/>
       <c r="B380" s="8" t="s">
         <v>826</v>
@@ -21814,7 +21210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="381" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="381" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="7"/>
       <c r="B381" s="8" t="s">
         <v>830</v>
@@ -21859,7 +21255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="382" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="382" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="7">
         <v>15755</v>
       </c>
@@ -21906,7 +21302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="383" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="383" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="7"/>
       <c r="B383" s="8" t="s">
         <v>830</v>
@@ -21951,7 +21347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="384" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="384" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="7">
         <v>15125</v>
       </c>
@@ -21999,7 +21395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="385" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="385" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="7"/>
       <c r="B385" s="8" t="s">
         <v>836</v>
@@ -22045,7 +21441,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="386" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="386" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="10"/>
       <c r="B386" s="11" t="s">
         <v>836</v>
@@ -22091,7 +21487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="387" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="387" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="7">
         <v>15126</v>
       </c>
@@ -22139,7 +21535,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="388" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="388" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="7"/>
       <c r="B388" s="8" t="s">
         <v>844</v>
@@ -22185,7 +21581,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="389" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="389" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="7">
         <v>17036</v>
       </c>
@@ -22233,7 +21629,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="390" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="390" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="7"/>
       <c r="B390" s="8" t="s">
         <v>844</v>
@@ -22279,7 +21675,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="391" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="391" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="10"/>
       <c r="B391" s="11" t="s">
         <v>844</v>
@@ -22325,7 +21721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="392" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="392" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="7">
         <v>15391</v>
       </c>
@@ -22373,7 +21769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="393" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="393" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="7"/>
       <c r="B393" s="8" t="s">
         <v>855</v>
@@ -22418,7 +21814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="394" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="394" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="7">
         <v>17047</v>
       </c>
@@ -22466,7 +21862,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="395" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="395" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="7"/>
       <c r="B395" s="8" t="s">
         <v>859</v>
@@ -22512,7 +21908,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="396" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="396" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="7">
         <v>17042</v>
       </c>
@@ -22559,7 +21955,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="397" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="397" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="7"/>
       <c r="B397" s="8" t="s">
         <v>862</v>
@@ -22604,7 +22000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="398" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="398" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="7"/>
       <c r="B398" s="8" t="s">
         <v>862</v>
@@ -22649,7 +22045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="399" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="399" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="7">
         <v>16510</v>
       </c>
@@ -22697,7 +22093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="400" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="7"/>
       <c r="B400" s="8" t="s">
         <v>868</v>
@@ -22743,7 +22139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="401" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="401" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="7">
         <v>13611</v>
       </c>
@@ -22791,7 +22187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="402" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="402" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="7"/>
       <c r="B402" s="8" t="s">
         <v>872</v>
@@ -22837,7 +22233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="403" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="403" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="7"/>
       <c r="B403" s="8" t="s">
         <v>872</v>
@@ -22883,7 +22279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="404" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="404" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="10">
         <v>19614</v>
       </c>
@@ -22931,7 +22327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="405" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="405" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="7"/>
       <c r="B405" s="8" t="s">
         <v>878</v>
@@ -22975,7 +22371,7 @@
       </c>
       <c r="S405" s="5"/>
     </row>
-    <row r="406" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="406" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="10">
         <v>17375</v>
       </c>
@@ -23023,7 +22419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="407" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="407" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="7"/>
       <c r="B407" s="8" t="s">
         <v>884</v>
@@ -23066,7 +22462,7 @@
       </c>
       <c r="S407" s="5"/>
     </row>
-    <row r="408" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="408" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="7">
         <v>15078</v>
       </c>
@@ -23113,7 +22509,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="409" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="409" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="10"/>
       <c r="B409" s="11" t="s">
         <v>888</v>
@@ -23158,7 +22554,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="410" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="410" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="10"/>
       <c r="B410" s="11" t="s">
         <v>888</v>
@@ -23201,7 +22597,7 @@
       </c>
       <c r="S410" s="13"/>
     </row>
-    <row r="411" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="411" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="7"/>
       <c r="B411" s="8" t="s">
         <v>893</v>
@@ -23246,7 +22642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="412" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="412" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="7">
         <v>13840</v>
       </c>
@@ -23293,7 +22689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="413" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="413" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="7"/>
       <c r="B413" s="8" t="s">
         <v>893</v>
@@ -23338,7 +22734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="414" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="414" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="10">
         <v>18290</v>
       </c>
@@ -23386,7 +22782,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="415" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="415" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="7">
         <v>15344</v>
       </c>
@@ -23434,7 +22830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="416" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="416" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="7"/>
       <c r="B416" s="8" t="s">
         <v>901</v>
@@ -23480,7 +22876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="417" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="417" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="10">
         <v>17620</v>
       </c>
@@ -23528,7 +22924,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="418" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="418" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="7">
         <v>15077</v>
       </c>
@@ -23576,7 +22972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="419" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="419" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="7"/>
       <c r="B419" s="8" t="s">
         <v>909</v>
@@ -23622,7 +23018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="420" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="420" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="10">
         <v>15285</v>
       </c>
@@ -23670,7 +23066,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="421" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="421" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="7"/>
       <c r="B421" s="8" t="s">
         <v>913</v>
@@ -23714,7 +23110,7 @@
       </c>
       <c r="S421" s="5"/>
     </row>
-    <row r="422" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="422" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="10">
         <v>17086</v>
       </c>
@@ -23762,7 +23158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="423" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="423" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="7"/>
       <c r="B423" s="8" t="s">
         <v>913</v>
@@ -23806,7 +23202,7 @@
       </c>
       <c r="S423" s="5"/>
     </row>
-    <row r="424" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="424" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="7"/>
       <c r="B424" s="8" t="s">
         <v>919</v>
@@ -23850,7 +23246,7 @@
       </c>
       <c r="S424" s="5"/>
     </row>
-    <row r="425" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="425" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="10">
         <v>17367</v>
       </c>
@@ -23898,7 +23294,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="426" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="426" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="10"/>
       <c r="B426" s="11" t="s">
         <v>923</v>
@@ -23943,7 +23339,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="427" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="427" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="10"/>
       <c r="B427" s="11" t="s">
         <v>923</v>
@@ -23988,7 +23384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="428" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="428" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="7">
         <v>16609</v>
       </c>
@@ -24036,7 +23432,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="429" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="429" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="7"/>
       <c r="B429" s="8" t="s">
         <v>927</v>
@@ -24082,7 +23478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="430" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="430" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="7"/>
       <c r="B430" s="8" t="s">
         <v>927</v>
@@ -24128,7 +23524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="431" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="431" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="7"/>
       <c r="B431" s="8" t="s">
         <v>927</v>
@@ -24172,7 +23568,7 @@
       </c>
       <c r="S431" s="5"/>
     </row>
-    <row r="432" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="432" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="7">
         <v>13911</v>
       </c>
@@ -24220,7 +23616,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="433" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="433" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="7"/>
       <c r="B433" s="8" t="s">
         <v>935</v>
@@ -24266,7 +23662,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="434" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="434" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="7">
         <v>21270</v>
       </c>
@@ -24314,7 +23710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="435" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="435" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="7"/>
       <c r="B435" s="8" t="s">
         <v>940</v>
@@ -24358,7 +23754,7 @@
       </c>
       <c r="S435" s="5"/>
     </row>
-    <row r="436" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="436" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="7"/>
       <c r="B436" s="8" t="s">
         <v>940</v>
@@ -24398,7 +23794,7 @@
       <c r="R436" s="5"/>
       <c r="S436" s="5"/>
     </row>
-    <row r="437" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="437" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="10"/>
       <c r="B437" s="11" t="s">
         <v>946</v>
@@ -24443,7 +23839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="438" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="438" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="7">
         <v>15179</v>
       </c>
@@ -24491,7 +23887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="439" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="439" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="7"/>
       <c r="B439" s="8" t="s">
         <v>948</v>
@@ -24537,7 +23933,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="440" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="440" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="7"/>
       <c r="B440" s="8" t="s">
         <v>952</v>
@@ -24583,7 +23979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="441" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="441" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="7">
         <v>15284</v>
       </c>
@@ -24631,7 +24027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="442" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="442" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="10">
         <v>17153</v>
       </c>
@@ -24679,7 +24075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="443" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="443" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="7">
         <v>16907</v>
       </c>
@@ -24727,7 +24123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="444" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="444" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="7"/>
       <c r="B444" s="8" t="s">
         <v>958</v>
@@ -24773,7 +24169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="445" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="445" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="7">
         <v>16488</v>
       </c>
@@ -24821,7 +24217,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="446" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="446" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="7"/>
       <c r="B446" s="8" t="s">
         <v>963</v>
@@ -24867,7 +24263,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="447" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="447" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="7"/>
       <c r="B447" s="8" t="s">
         <v>963</v>
@@ -24913,7 +24309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="448" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="448" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="7"/>
       <c r="B448" s="8" t="s">
         <v>963</v>
@@ -24959,7 +24355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="449" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="449" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="7"/>
       <c r="B449" s="8" t="s">
         <v>971</v>
@@ -25004,7 +24400,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="450" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="450" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="7"/>
       <c r="B450" s="8" t="s">
         <v>971</v>
@@ -25049,7 +24445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="451" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="451" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="7">
         <v>13442</v>
       </c>
@@ -25096,7 +24492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="452" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="452" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="7">
         <v>14626</v>
       </c>
@@ -25143,7 +24539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="453" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="453" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="7"/>
       <c r="B453" s="8" t="s">
         <v>977</v>
@@ -25186,7 +24582,7 @@
       </c>
       <c r="S453" s="5"/>
     </row>
-    <row r="454" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="454" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="7"/>
       <c r="B454" s="8" t="s">
         <v>981</v>
@@ -25232,7 +24628,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="455" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="455" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="7">
         <v>14342</v>
       </c>
@@ -25280,7 +24676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="456" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="456" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="7"/>
       <c r="B456" s="8" t="s">
         <v>981</v>
@@ -25324,7 +24720,7 @@
       </c>
       <c r="S456" s="5"/>
     </row>
-    <row r="457" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="457" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="7">
         <v>15346</v>
       </c>
@@ -25372,7 +24768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="458" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="458" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="7"/>
       <c r="B458" s="8" t="s">
         <v>987</v>
@@ -25418,7 +24814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="459" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="459" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="7"/>
       <c r="B459" s="8" t="s">
         <v>987</v>
@@ -25462,7 +24858,7 @@
       </c>
       <c r="S459" s="5"/>
     </row>
-    <row r="460" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="460" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="10">
         <v>19560</v>
       </c>
@@ -25510,7 +24906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="461" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="461" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="7"/>
       <c r="B461" s="8" t="s">
         <v>995</v>
@@ -25556,7 +24952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="462" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="462" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="7">
         <v>16458</v>
       </c>
@@ -25604,7 +25000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="463" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="463" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="7">
         <v>155</v>
       </c>
@@ -25652,7 +25048,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="464" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="464" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="7"/>
       <c r="B464" s="8" t="s">
         <v>999</v>
@@ -25696,7 +25092,7 @@
       </c>
       <c r="S464" s="5"/>
     </row>
-    <row r="465" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="465" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="7"/>
       <c r="B465" s="8" t="s">
         <v>999</v>
@@ -25742,7 +25138,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="466" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="466" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="7"/>
       <c r="B466" s="8" t="s">
         <v>999</v>
@@ -25786,7 +25182,7 @@
       </c>
       <c r="S466" s="5"/>
     </row>
-    <row r="467" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="467" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="7"/>
       <c r="B467" s="8" t="s">
         <v>1007</v>
@@ -25832,7 +25228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="468" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="468" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="7"/>
       <c r="B468" s="8" t="s">
         <v>1007</v>
@@ -25878,7 +25274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="469" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="469" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="7">
         <v>14853</v>
       </c>
@@ -25926,7 +25322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="470" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="470" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="10">
         <v>17373</v>
       </c>
@@ -25974,7 +25370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="471" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="471" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="10">
         <v>19489</v>
       </c>
@@ -26022,7 +25418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="472" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="472" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="7">
         <v>13713</v>
       </c>
@@ -26070,7 +25466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="473" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="473" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="7"/>
       <c r="B473" s="8" t="s">
         <v>1017</v>
@@ -26116,7 +25512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="474" s="5" customFormat="1" customHeight="1" spans="1:19">
+    <row r="474" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="11">
         <v>17094</v>
       </c>
@@ -26164,7 +25560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="475" s="5" customFormat="1" customHeight="1" spans="1:18">
+    <row r="475" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="8"/>
       <c r="B475" s="8" t="s">
         <v>1021</v>
@@ -26207,7 +25603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="476" s="5" customFormat="1" customHeight="1" spans="1:19">
+    <row r="476" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="11">
         <v>16613</v>
       </c>
@@ -26255,7 +25651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="477" s="5" customFormat="1" customHeight="1" spans="1:19">
+    <row r="477" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="8">
         <v>16338</v>
       </c>
@@ -26302,7 +25698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="478" s="5" customFormat="1" customHeight="1" spans="1:19">
+    <row r="478" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="8"/>
       <c r="B478" s="8" t="s">
         <v>548</v>
@@ -26347,7 +25743,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="479" s="5" customFormat="1" customHeight="1" spans="1:19">
+    <row r="479" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="8">
         <v>16249</v>
       </c>
@@ -26395,7 +25791,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="480" s="5" customFormat="1" customHeight="1" spans="1:19">
+    <row r="480" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="8"/>
       <c r="B480" s="8" t="s">
         <v>1030</v>
@@ -26441,7 +25837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="481" s="5" customFormat="1" customHeight="1" spans="1:19">
+    <row r="481" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="11">
         <v>20342</v>
       </c>
@@ -26489,7 +25885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="482" s="5" customFormat="1" customHeight="1" spans="1:19">
+    <row r="482" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="11">
         <v>19488</v>
       </c>
@@ -26537,7 +25933,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="483" s="5" customFormat="1" customHeight="1" spans="1:19">
+    <row r="483" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="11">
         <v>17152</v>
       </c>
@@ -26585,7 +25981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="484" s="5" customFormat="1" customHeight="1" spans="1:16">
+    <row r="484" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="8"/>
       <c r="B484" s="14" t="s">
         <v>1038</v>
@@ -26625,197 +26021,195 @@
         <v>15845232736</v>
       </c>
     </row>
-    <row r="485" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="485" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H485" s="27"/>
     </row>
-    <row r="486" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="486" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H486" s="27"/>
     </row>
-    <row r="487" s="5" customFormat="1" customHeight="1" spans="7:8">
+    <row r="487" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G487" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="H487" s="27"/>
     </row>
-    <row r="488" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="488" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H488" s="27"/>
     </row>
-    <row r="489" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="489" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H489" s="27"/>
     </row>
-    <row r="490" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="490" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H490" s="27"/>
     </row>
-    <row r="491" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="491" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H491" s="27"/>
     </row>
-    <row r="492" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="492" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H492" s="27"/>
     </row>
-    <row r="493" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="493" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H493" s="27"/>
     </row>
-    <row r="494" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="494" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H494" s="27"/>
     </row>
-    <row r="495" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="495" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H495" s="27"/>
     </row>
-    <row r="496" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="496" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H496" s="27"/>
     </row>
-    <row r="497" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="497" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H497" s="27"/>
     </row>
-    <row r="498" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="498" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H498" s="27"/>
     </row>
-    <row r="499" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="499" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H499" s="27"/>
     </row>
-    <row r="500" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="500" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H500" s="27"/>
     </row>
-    <row r="501" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="501" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H501" s="27"/>
     </row>
-    <row r="502" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="502" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H502" s="27"/>
     </row>
-    <row r="503" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="503" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H503" s="27"/>
     </row>
-    <row r="504" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="504" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H504" s="27"/>
     </row>
-    <row r="505" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="505" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H505" s="27"/>
     </row>
-    <row r="506" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="506" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H506" s="27"/>
     </row>
-    <row r="507" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="507" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H507" s="27"/>
     </row>
-    <row r="508" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="508" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H508" s="27"/>
     </row>
-    <row r="509" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="509" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H509" s="27"/>
     </row>
-    <row r="510" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="510" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H510" s="27"/>
     </row>
-    <row r="511" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="511" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H511" s="27"/>
     </row>
-    <row r="512" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="512" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H512" s="27"/>
     </row>
-    <row r="513" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="513" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H513" s="27"/>
     </row>
-    <row r="514" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="514" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H514" s="27"/>
     </row>
-    <row r="515" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="515" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H515" s="27"/>
     </row>
-    <row r="516" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="516" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H516" s="27"/>
     </row>
-    <row r="517" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="517" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H517" s="27"/>
     </row>
-    <row r="518" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="518" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H518" s="27"/>
     </row>
-    <row r="519" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="519" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H519" s="27"/>
     </row>
-    <row r="520" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="520" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H520" s="27"/>
     </row>
-    <row r="521" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="521" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H521" s="27"/>
     </row>
-    <row r="522" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="522" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H522" s="27"/>
     </row>
-    <row r="523" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="523" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H523" s="27"/>
     </row>
-    <row r="524" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="524" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H524" s="27"/>
     </row>
-    <row r="525" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="525" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H525" s="27"/>
     </row>
-    <row r="526" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="526" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H526" s="27"/>
     </row>
-    <row r="527" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="527" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H527" s="27"/>
     </row>
-    <row r="528" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="528" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H528" s="27"/>
     </row>
-    <row r="529" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="529" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H529" s="27"/>
     </row>
-    <row r="530" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="530" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H530" s="27"/>
     </row>
-    <row r="531" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="531" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H531" s="27"/>
     </row>
-    <row r="532" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="532" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H532" s="27"/>
     </row>
-    <row r="533" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="533" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H533" s="27"/>
     </row>
-    <row r="534" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="534" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H534" s="27"/>
     </row>
-    <row r="535" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="535" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H535" s="27"/>
     </row>
-    <row r="536" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="536" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H536" s="27"/>
     </row>
-    <row r="537" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="537" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H537" s="27"/>
     </row>
-    <row r="538" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="538" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H538" s="27"/>
     </row>
-    <row r="539" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="539" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H539" s="27"/>
     </row>
-    <row r="540" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="540" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H540" s="27"/>
     </row>
-    <row r="541" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="541" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H541" s="27"/>
     </row>
-    <row r="542" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="542" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H542" s="27"/>
     </row>
-    <row r="543" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="543" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H543" s="27"/>
     </row>
-    <row r="544" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="544" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H544" s="27"/>
     </row>
-    <row r="545" s="5" customFormat="1" customHeight="1" spans="8:8">
+    <row r="545" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H545" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="M1:M545">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <autoFilter ref="M1:M545"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>